--- a/FresnelFringeM.xlsx
+++ b/FresnelFringeM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\TEG-NAS\TEG_Home\H_drive_copy\My Papers\PBI Optimization 2025\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D7D103-F046-41A6-A570-FCECDE7776C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ACFA8A-7F98-4F20-A202-0F26CD72F261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1965" windowWidth="29295" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
+    <workbookView xWindow="11565" yWindow="660" windowWidth="45315" windowHeight="30690" xr2:uid="{3222188A-DE0C-4728-A84D-656DCA81D6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3309,12 +3309,40 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> (microns)</a:t>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>(m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1800" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU" sz="1800" b="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -3323,7 +3351,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.83802565067546586"/>
+              <c:x val="0.88513490196933597"/>
               <c:y val="0.86654467597196705"/>
             </c:manualLayout>
           </c:layout>
@@ -3537,7 +3565,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3622,6 +3650,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5717,15 +5746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5752,6 +5781,61 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422713</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72486</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB71E01-4E65-6B05-67F5-93933667A46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10294883" y="7160400"/>
+          <a:ext cx="868089" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5759,12 +5843,77 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.39186</cdr:x>
+      <cdr:y>0.90045</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48394</cdr:x>
+      <cdr:y>0.95097</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A446B1D5-7394-CDC7-9D9E-E22206466A00}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3486150" y="5772151"/>
+          <a:ext cx="819150" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-AU" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.50214</cdr:x>
-      <cdr:y>0.02526</cdr:y>
+      <cdr:y>0.02377</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.65418</cdr:x>
-      <cdr:y>0.16048</cdr:y>
+      <cdr:y>0.15899</cdr:y>
     </cdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -5781,8 +5930,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="4467225" y="161925"/>
-              <a:ext cx="1352550" cy="866774"/>
+              <a:off x="4467213" y="152400"/>
+              <a:ext cx="1352601" cy="866804"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -6151,8 +6300,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="4467225" y="161925"/>
-              <a:ext cx="1352550" cy="866774"/>
+              <a:off x="4467213" y="152400"/>
+              <a:ext cx="1352601" cy="866804"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -6511,6 +6660,116 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41006</cdr:x>
+      <cdr:y>0.87816</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48394</cdr:x>
+      <cdr:y>0.93462</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ECF990-6839-A454-8DCC-CEE4A218E197}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3648075" y="5629275"/>
+          <a:ext cx="657225" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-AU" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39588</cdr:x>
+      <cdr:y>0.90961</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50188</cdr:x>
+      <cdr:y>0.90968</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C44FC56-19A7-79F3-4648-71DC38259C33}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="3529178" y="5830890"/>
+          <a:ext cx="944925" cy="432"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -6833,8 +7092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6D1821-5B0F-46CD-BC90-FC2B36DE3E9A}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6897,24 +7156,24 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" ref="C2:C33" si="0">$B$2*(ROW()-51)</f>
         <v>-392</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C2*C2/(2*$B$6*$B$6))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$6))))</f>
+        <f t="shared" ref="E2:E33" si="1">-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C2*C2/(2*$B$6*$B$6))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$6))))</f>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F2" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C2*C2/(2*$B$8*$B$8))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="F2:F33" si="2">1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C2*C2/(2*$B$8*$B$8))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))</f>
         <v>8.7632669768783089E-2</v>
       </c>
       <c r="G2" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C2*C2/(2*$B$10*$B$10))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$10))))</f>
+        <f t="shared" ref="G2:G33" si="3">0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C2*C2/(2*$B$10*$B$10))*C2*EXP(-0.5-0.5*ERF(C2/(SQRT(2)*$B$10))))</f>
         <v>8.7632670315203345E-2</v>
       </c>
       <c r="H2" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="H2:H33" si="4">1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C2/(SQRT(2)*$B$8))))</f>
         <v>8.763266976878209E-2</v>
       </c>
       <c r="J2">
@@ -6936,24 +7195,24 @@
         <v>37.5</v>
       </c>
       <c r="C3">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-384</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C3/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C3*C3/(2*$B$6*$B$6))*C3*EXP(-0.5-0.5*ERF(C3/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F3" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C3/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C3*C3/(2*$B$8*$B$8))*C3*EXP(-0.5-0.5*ERF(C3/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669768785712E-2</v>
       </c>
       <c r="G3" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C3/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C3*C3/(2*$B$10*$B$10))*C3*EXP(-0.5-0.5*ERF(C3/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632670487770375E-2</v>
       </c>
       <c r="H3" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C3/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.763266976878209E-2</v>
       </c>
       <c r="J3">
@@ -6966,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X66" si="0">(0.0876326664977975-H3)/0.00364425163912571</f>
+        <f t="shared" ref="X3:X66" si="5">(0.0876326664977975-H3)/0.00364425163912571</f>
         <v>-8.9757374577991145E-7</v>
       </c>
     </row>
@@ -6978,24 +7237,24 @@
         <v>400</v>
       </c>
       <c r="C4">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-376</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C4/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C4*C4/(2*$B$6*$B$6))*C4*EXP(-0.5-0.5*ERF(C4/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F4" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C4/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C4*C4/(2*$B$8*$B$8))*C4*EXP(-0.5-0.5*ERF(C4/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669768794969E-2</v>
       </c>
       <c r="G4" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C4/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C4*C4/(2*$B$10*$B$10))*C4*EXP(-0.5-0.5*ERF(C4/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632670859553549E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C4/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768782076E-2</v>
       </c>
       <c r="J4">
@@ -7010,7 +7269,7 @@
         <v>14</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757374197178039E-7</v>
       </c>
     </row>
@@ -7022,24 +7281,24 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-368</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C5/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C5*C5/(2*$B$6*$B$6))*C5*EXP(-0.5-0.5*ERF(C5/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F5" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C5/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C5*C5/(2*$B$8*$B$8))*C5*EXP(-0.5-0.5*ERF(C5/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669768826651E-2</v>
       </c>
       <c r="G5" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C5/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C5*C5/(2*$B$10*$B$10))*C5*EXP(-0.5-0.5*ERF(C5/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632671646362237E-2</v>
       </c>
       <c r="H5" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C5/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768782021E-2</v>
       </c>
       <c r="J5">
@@ -7052,7 +7311,7 @@
         <v>15</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757372673925624E-7</v>
       </c>
     </row>
@@ -7065,28 +7324,28 @@
         <v>40.476190476190482</v>
       </c>
       <c r="C6">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-360</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C6/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C6*C6/(2*$B$6*$B$6))*C6*EXP(-0.5-0.5*ERF(C6/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F6" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C6/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C6*C6/(2*$B$8*$B$8))*C6*EXP(-0.5-0.5*ERF(C6/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669768932081E-2</v>
       </c>
       <c r="G6" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C6/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C6*C6/(2*$B$10*$B$10))*C6*EXP(-0.5-0.5*ERF(C6/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632673281959145E-2</v>
       </c>
       <c r="H6" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C6/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768781868E-2</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757368484981474E-7</v>
       </c>
     </row>
@@ -7098,28 +7357,28 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="C7">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-352</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C7/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C7*C7/(2*$B$6*$B$6))*C7*EXP(-0.5-0.5*ERF(C7/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229092E-2</v>
       </c>
       <c r="F7" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C7/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C7*C7/(2*$B$8*$B$8))*C7*EXP(-0.5-0.5*ERF(C7/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669769273253E-2</v>
       </c>
       <c r="G7" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C7/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C7*C7/(2*$B$10*$B$10))*C7*EXP(-0.5-0.5*ERF(C7/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632676621522562E-2</v>
       </c>
       <c r="H7" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C7/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768781327E-2</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757353633270398E-7</v>
       </c>
     </row>
@@ -7132,28 +7391,28 @@
         <v>48.540919876390042</v>
       </c>
       <c r="C8">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-344</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C8/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C8*C8/(2*$B$6*$B$6))*C8*EXP(-0.5-0.5*ERF(C8/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.763266985522912E-2</v>
       </c>
       <c r="F8" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C8/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C8*C8/(2*$B$8*$B$8))*C8*EXP(-0.5-0.5*ERF(C8/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669770346505E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C8/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C8*C8/(2*$B$10*$B$10))*C8*EXP(-0.5-0.5*ERF(C8/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.763268331861615E-2</v>
       </c>
       <c r="H8" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C8/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768779536E-2</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757304508379892E-7</v>
       </c>
     </row>
@@ -7165,28 +7424,28 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="C9">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-336</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C9/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C9*C9/(2*$B$6*$B$6))*C9*EXP(-0.5-0.5*ERF(C9/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229245E-2</v>
       </c>
       <c r="F9" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C9/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C9*C9/(2*$B$8*$B$8))*C9*EXP(-0.5-0.5*ERF(C9/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669773628755E-2</v>
       </c>
       <c r="G9" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C9/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C9*C9/(2*$B$10*$B$10))*C9*EXP(-0.5-0.5*ERF(C9/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.763269650851388E-2</v>
       </c>
       <c r="H9" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C9/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768773805E-2</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9757147232567681E-7</v>
       </c>
     </row>
@@ -7199,28 +7458,28 @@
         <v>61.52596390471696</v>
       </c>
       <c r="C10">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-328</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C10/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C10*C10/(2*$B$6*$B$6))*C10*EXP(-0.5-0.5*ERF(C10/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855229814E-2</v>
       </c>
       <c r="F10" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C10/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C10*C10/(2*$B$8*$B$8))*C10*EXP(-0.5-0.5*ERF(C10/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669783386741E-2</v>
       </c>
       <c r="G10" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C10/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C10*C10/(2*$B$10*$B$10))*C10*EXP(-0.5-0.5*ERF(C10/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632722019543474E-2</v>
       </c>
       <c r="H10" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C10/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768755903E-2</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9756655983662696E-7</v>
       </c>
     </row>
@@ -7232,28 +7491,28 @@
         <v>3.875E-5</v>
       </c>
       <c r="C11">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-320</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C11/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C11*C11/(2*$B$6*$B$6))*C11*EXP(-0.5-0.5*ERF(C11/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855232478E-2</v>
       </c>
       <c r="F11" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C11/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C11*C11/(2*$B$8*$B$8))*C11*EXP(-0.5-0.5*ERF(C11/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669811585795E-2</v>
       </c>
       <c r="G11" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C11/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C11*C11/(2*$B$10*$B$10))*C11*EXP(-0.5-0.5*ERF(C11/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7632770472122049E-2</v>
       </c>
       <c r="H11" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C11/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768701529E-2</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9755163957918716E-7</v>
       </c>
     </row>
@@ -7265,28 +7524,28 @@
         <v>869</v>
       </c>
       <c r="C12">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-312</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C12/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C12*C12/(2*$B$6*$B$6))*C12*EXP(-0.5-0.5*ERF(C12/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855244552E-2</v>
       </c>
       <c r="F12" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C12/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C12*C12/(2*$B$8*$B$8))*C12*EXP(-0.5-0.5*ERF(C12/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632669890793644E-2</v>
       </c>
       <c r="G12" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C12/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C12*C12/(2*$B$10*$B$10))*C12*EXP(-0.5-0.5*ERF(C12/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.76328608321751E-2</v>
       </c>
       <c r="H12" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C12/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768540783E-2</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9750752999727688E-7</v>
       </c>
     </row>
@@ -7298,28 +7557,28 @@
         <v>140000000</v>
       </c>
       <c r="C13">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-304</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C13/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C13*C13/(2*$B$6*$B$6))*C13*EXP(-0.5-0.5*ERF(C13/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855296899E-2</v>
       </c>
       <c r="F13" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C13/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C13*C13/(2*$B$8*$B$8))*C13*EXP(-0.5-0.5*ERF(C13/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632670107030158E-2</v>
       </c>
       <c r="G13" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C13/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C13*C13/(2*$B$10*$B$10))*C13*EXP(-0.5-0.5*ERF(C13/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7633026284249849E-2</v>
       </c>
       <c r="H13" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C13/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669768078167E-2</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9738058594884542E-7</v>
       </c>
     </row>
@@ -7332,28 +7591,28 @@
         <v>6349206.3492063545</v>
       </c>
       <c r="C14">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-296</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C14/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C14*C14/(2*$B$6*$B$6))*C14*EXP(-0.5-0.5*ERF(C14/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669855514697E-2</v>
       </c>
       <c r="F14" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C14/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C14*C14/(2*$B$8*$B$8))*C14*EXP(-0.5-0.5*ERF(C14/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632670680727623E-2</v>
       </c>
       <c r="G14" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C14/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C14*C14/(2*$B$10*$B$10))*C14*EXP(-0.5-0.5*ERF(C14/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7633323701662602E-2</v>
       </c>
       <c r="H14" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C14/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.763266976678255E-2</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9702506264248541E-7</v>
       </c>
     </row>
@@ -7366,28 +7625,28 @@
         <v>83.679288192391681</v>
       </c>
       <c r="C15">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-288</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C15/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C15*C15/(2*$B$6*$B$6))*C15*EXP(-0.5-0.5*ERF(C15/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669856385362E-2</v>
       </c>
       <c r="F15" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C15/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C15*C15/(2*$B$8*$B$8))*C15*EXP(-0.5-0.5*ERF(C15/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632672159810771E-2</v>
       </c>
       <c r="G15" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C15/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C15*C15/(2*$B$10*$B$10))*C15*EXP(-0.5-0.5*ERF(C15/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7633848530429964E-2</v>
       </c>
       <c r="H15" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C15/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669763250945E-2</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9605597326193101E-7</v>
       </c>
     </row>
@@ -7400,28 +7659,28 @@
         <v>10995658.553051554</v>
       </c>
       <c r="C16">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-280</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C16/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C16*C16/(2*$B$6*$B$6))*C16*EXP(-0.5-0.5*ERF(C16/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669859727452E-2</v>
       </c>
       <c r="F16" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C16/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C16*C16/(2*$B$8*$B$8))*C16*EXP(-0.5-0.5*ERF(C16/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632675865058685E-2</v>
       </c>
       <c r="G16" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C16/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C16*C16/(2*$B$10*$B$10))*C16*EXP(-0.5-0.5*ERF(C16/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7634757565023522E-2</v>
       </c>
       <c r="H16" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C16/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669753881884E-2</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.9348505829494016E-7</v>
       </c>
     </row>
@@ -7434,28 +7693,28 @@
         <v>69.491696825569178</v>
       </c>
       <c r="C17">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-272</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C17/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C17*C17/(2*$B$6*$B$6))*C17*EXP(-0.5-0.5*ERF(C17/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669872045016E-2</v>
       </c>
       <c r="F17" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C17/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C17*C17/(2*$B$8*$B$8))*C17*EXP(-0.5-0.5*ERF(C17/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632684883101539E-2</v>
       </c>
       <c r="G17" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C17/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C17*C17/(2*$B$10*$B$10))*C17*EXP(-0.5-0.5*ERF(C17/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7636302835147464E-2</v>
       </c>
       <c r="H17" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C17/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669729691151E-2</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.8684700605656949E-7</v>
       </c>
     </row>
@@ -7468,28 +7727,28 @@
         <v>15879017.013232509</v>
       </c>
       <c r="C18">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-264</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C18/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C18*C18/(2*$B$6*$B$6))*C18*EXP(-0.5-0.5*ERF(C18/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632669915629638E-2</v>
       </c>
       <c r="F18" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C18/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C18*C18/(2*$B$8*$B$8))*C18*EXP(-0.5-0.5*ERF(C18/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632706205128613E-2</v>
       </c>
       <c r="G18" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C18/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C18*C18/(2*$B$10*$B$10))*C18*EXP(-0.5-0.5*ERF(C18/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.763888054328689E-2</v>
       </c>
       <c r="H18" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C18/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669668901306E-2</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.7016598306489151E-7</v>
       </c>
     </row>
@@ -7502,28 +7761,28 @@
         <v>77.309238572209622</v>
       </c>
       <c r="C19">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-256</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C19/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C19*C19/(2*$B$6*$B$6))*C19*EXP(-0.5-0.5*ERF(C19/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632670063673937E-2</v>
       </c>
       <c r="F19" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C19/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C19*C19/(2*$B$8*$B$8))*C19*EXP(-0.5-0.5*ERF(C19/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632755173042365E-2</v>
       </c>
       <c r="G19" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C19/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C19*C19/(2*$B$10*$B$10))*C19*EXP(-0.5-0.5*ERF(C19/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7643099509190733E-2</v>
       </c>
       <c r="H19" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C19/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.763266952022479E-2</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-8.2936843935326433E-7</v>
       </c>
     </row>
@@ -7535,28 +7794,28 @@
         <v>86000</v>
       </c>
       <c r="C20">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-248</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C20/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C20*C20/(2*$B$6*$B$6))*C20*EXP(-0.5-0.5*ERF(C20/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632670546336791E-2</v>
       </c>
       <c r="F20" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C20/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C20*C20/(2*$B$8*$B$8))*C20*EXP(-0.5-0.5*ERF(C20/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7632864392878873E-2</v>
       </c>
       <c r="G20" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C20/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C20*C20/(2*$B$10*$B$10))*C20*EXP(-0.5-0.5*ERF(C20/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7649873601419626E-2</v>
       </c>
       <c r="H20" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C20/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632669166322799E-2</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-7.3225604808853652E-7</v>
       </c>
     </row>
@@ -7568,28 +7827,28 @@
         <v>5000</v>
       </c>
       <c r="C21">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-240</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C21/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C21*C21/(2*$B$6*$B$6))*C21*EXP(-0.5-0.5*ERF(C21/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.763267205651265E-2</v>
       </c>
       <c r="F21" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C21/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C21*C21/(2*$B$8*$B$8))*C21*EXP(-0.5-0.5*ERF(C21/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7633100947474812E-2</v>
       </c>
       <c r="G21" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C21/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C21*C21/(2*$B$10*$B$10))*C21*EXP(-0.5-0.5*ERF(C21/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7660541764329275E-2</v>
       </c>
       <c r="H21" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C21/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632668346437709E-2</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-5.0727567582977154E-7</v>
       </c>
     </row>
@@ -7601,28 +7860,28 @@
         <v>3.875E-5</v>
       </c>
       <c r="C22">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-232</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C22/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C22*C22/(2*$B$6*$B$6))*C22*EXP(-0.5-0.5*ERF(C22/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632676590426686E-2</v>
       </c>
       <c r="F22" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C22/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C22*C22/(2*$B$8*$B$8))*C22*EXP(-0.5-0.5*ERF(C22/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7633598371196275E-2</v>
       </c>
       <c r="G22" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C22/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C22*C22/(2*$B$10*$B$10))*C22*EXP(-0.5-0.5*ERF(C22/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7677016976854885E-2</v>
       </c>
       <c r="H22" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C22/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632666497797509E-2</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-3.8081310463906021E-15</v>
       </c>
     </row>
@@ -7634,28 +7893,28 @@
         <v>869</v>
       </c>
       <c r="C23">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-224</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C23/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C23*C23/(2*$B$6*$B$6))*C23*EXP(-0.5-0.5*ERF(C23/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632689649240703E-2</v>
       </c>
       <c r="F23" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C23/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C23*C23/(2*$B$8*$B$8))*C23*EXP(-0.5-0.5*ERF(C23/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7634613691119259E-2</v>
       </c>
       <c r="G23" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C23/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C23*C23/(2*$B$10*$B$10))*C23*EXP(-0.5-0.5*ERF(C23/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7701961253114372E-2</v>
       </c>
       <c r="H23" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C23/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632662441019304E-2</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1131992499085344E-6</v>
       </c>
     </row>
@@ -7667,28 +7926,28 @@
         <v>8.4950000000000008E-6</v>
       </c>
       <c r="C24">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-216</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C24/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C24*C24/(2*$B$6*$B$6))*C24*EXP(-0.5-0.5*ERF(C24/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632725726374136E-2</v>
       </c>
       <c r="F24" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C24/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C24*C24/(2*$B$8*$B$8))*C24*EXP(-0.5-0.5*ERF(C24/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7636624939991845E-2</v>
       </c>
       <c r="G24" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C24/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C24*C24/(2*$B$10*$B$10))*C24*EXP(-0.5-0.5*ERF(C24/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7738977113087827E-2</v>
       </c>
       <c r="H24" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C24/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632653776596264E-2</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.490758183305544E-6</v>
       </c>
     </row>
@@ -7701,56 +7960,56 @@
         <v>0.95841442558208445</v>
       </c>
       <c r="C25">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-208</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C25/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C25*C25/(2*$B$6*$B$6))*C25*EXP(-0.5-0.5*ERF(C25/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7632821304865341E-2</v>
       </c>
       <c r="F25" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C25/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C25*C25/(2*$B$8*$B$8))*C25*EXP(-0.5-0.5*ERF(C25/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7640490454555922E-2</v>
       </c>
       <c r="G25" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C25/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C25*C25/(2*$B$10*$B$10))*C25*EXP(-0.5-0.5*ERF(C25/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7792796527314865E-2</v>
       </c>
       <c r="H25" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C25/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632635766021108E-2</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.4329457542466102E-6</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="C26">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-200</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C26/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C26*C26/(2*$B$6*$B$6))*C26*EXP(-0.5-0.5*ERF(C26/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7633064064837118E-2</v>
       </c>
       <c r="F26" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C26/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C26*C26/(2*$B$8*$B$8))*C26*EXP(-0.5-0.5*ERF(C26/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.764769660986664E-2</v>
       </c>
       <c r="G26" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C26/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C26*C26/(2*$B$10*$B$10))*C26*EXP(-0.5-0.5*ERF(C26/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7869436315371433E-2</v>
       </c>
       <c r="H26" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C26/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632599328814093E-2</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8431488836265432E-5</v>
       </c>
     </row>
@@ -7762,28 +8021,28 @@
         <v>2.622E-5</v>
       </c>
       <c r="C27">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-192</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C27/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C27*C27/(2*$B$6*$B$6))*C27*EXP(-0.5-0.5*ERF(C27/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7633655021931017E-2</v>
       </c>
       <c r="F27" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C27/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C27*C27/(2*$B$8*$B$8))*C27*EXP(-0.5-0.5*ERF(C27/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7660722616075951E-2</v>
       </c>
       <c r="G27" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C27/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C27*C27/(2*$B$10*$B$10))*C27*EXP(-0.5-0.5*ERF(C27/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.7976275178860752E-2</v>
       </c>
       <c r="H27" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C27/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632527583733494E-2</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.8118680529734388E-5</v>
       </c>
     </row>
@@ -7796,110 +8055,110 @@
         <v>0.32385480381706566</v>
       </c>
       <c r="C28">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-184</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C28/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C28*C28/(2*$B$6*$B$6))*C28*EXP(-0.5-0.5*ERF(C28/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7635033344973273E-2</v>
       </c>
       <c r="F28" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C28/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C28*C28/(2*$B$8*$B$8))*C28*EXP(-0.5-0.5*ERF(C28/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7683545057817405E-2</v>
       </c>
       <c r="G28" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C28/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C28*C28/(2*$B$10*$B$10))*C28*EXP(-0.5-0.5*ERF(C28/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.8121993736050203E-2</v>
       </c>
       <c r="H28" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C28/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632390094511167E-2</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.5846377720144976E-5</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C29">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-176</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C29/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C29*C29/(2*$B$6*$B$6))*C29*EXP(-0.5-0.5*ERF(C29/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7638112228307169E-2</v>
       </c>
       <c r="F29" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C29/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C29*C29/(2*$B$8*$B$8))*C29*EXP(-0.5-0.5*ERF(C29/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7722284747222698E-2</v>
       </c>
       <c r="G29" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C29/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C29*C29/(2*$B$10*$B$10))*C29*EXP(-0.5-0.5*ERF(C29/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.8316307990957188E-2</v>
       </c>
       <c r="H29" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C29/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7632133661163902E-2</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.462129090847037E-4</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-168</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C30/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C30*C30/(2*$B$6*$B$6))*C30*EXP(-0.5-0.5*ERF(C30/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7644696147407455E-2</v>
       </c>
       <c r="F30" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C30/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C30*C30/(2*$B$8*$B$8))*C30*EXP(-0.5-0.5*ERF(C30/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7785957241195395E-2</v>
       </c>
       <c r="G30" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C30/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C30*C30/(2*$B$10*$B$10))*C30*EXP(-0.5-0.5*ERF(C30/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.8569422710280024E-2</v>
       </c>
       <c r="H30" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C30/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7631668172237401E-2</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.7394528670208232E-4</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C31">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-160</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C31/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C31*C31/(2*$B$6*$B$6))*C31*EXP(-0.5-0.5*ERF(C31/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7658166828495768E-2</v>
       </c>
       <c r="F31" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C31/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C31*C31/(2*$B$8*$B$8))*C31*EXP(-0.5-0.5*ERF(C31/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.7887220649175507E-2</v>
       </c>
       <c r="G31" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C31/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C31*C31/(2*$B$10*$B$10))*C31*EXP(-0.5-0.5*ERF(C31/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.8891139331319979E-2</v>
       </c>
       <c r="H31" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C31/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7630845791998535E-2</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9961033958603003E-4</v>
       </c>
     </row>
@@ -7909,1918 +8168,1918 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-152</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C32/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C32*C32/(2*$B$6*$B$6))*C32*EXP(-0.5-0.5*ERF(C32/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7684519499150654E-2</v>
       </c>
       <c r="F32" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C32/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C32*C32/(2*$B$8*$B$8))*C32*EXP(-0.5-0.5*ERF(C32/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.8042920026477803E-2</v>
       </c>
       <c r="G32" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C32/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C32*C32/(2*$B$10*$B$10))*C32*EXP(-0.5-0.5*ERF(C32/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.9289578924875573E-2</v>
       </c>
       <c r="H32" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C32/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7629431746025402E-2</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.8763128686409948E-4</v>
       </c>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="0"/>
         <v>-144</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C33/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C33*C33/(2*$B$6*$B$6))*C33*EXP(-0.5-0.5*ERF(C33/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="1"/>
         <v>8.7733773392512579E-2</v>
       </c>
       <c r="F33" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C33/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C33*C33/(2*$B$8*$B$8))*C33*EXP(-0.5-0.5*ERF(C33/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="2"/>
         <v>8.8274116797627394E-2</v>
       </c>
       <c r="G33" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C33/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C33*C33/(2*$B$10*$B$10))*C33*EXP(-0.5-0.5*ERF(C33/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="3"/>
         <v>8.9769529466171255E-2</v>
       </c>
       <c r="H33" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C33/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="4"/>
         <v>8.7627065387707342E-2</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.5369712755337998E-3</v>
       </c>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C34">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" ref="C34:C65" si="6">$B$2*(ROW()-51)</f>
         <v>-136</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C34*C34/(2*$B$6*$B$6))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$6))))</f>
+        <f t="shared" ref="E34:E65" si="7">-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C34*C34/(2*$B$6*$B$6))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$6))))</f>
         <v>8.7821634748458277E-2</v>
       </c>
       <c r="F34" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C34*C34/(2*$B$8*$B$8))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="F34:F65" si="8">1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C34*C34/(2*$B$8*$B$8))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))</f>
         <v>8.8605189639979931E-2</v>
       </c>
       <c r="G34" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C34*C34/(2*$B$10*$B$10))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$10))))</f>
+        <f t="shared" ref="G34:G65" si="9">0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C34*C34/(2*$B$10*$B$10))*C34*EXP(-0.5-0.5*ERF(C34/(SQRT(2)*$B$10))))</f>
         <v>9.0330500943089143E-2</v>
       </c>
       <c r="H34" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="H34:H65" si="10">1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C34/(SQRT(2)*$B$8))))</f>
         <v>8.7623211301591633E-2</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.5945508549269497E-3</v>
       </c>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-128</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C35/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C35*C35/(2*$B$6*$B$6))*C35*EXP(-0.5-0.5*ERF(C35/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.7971027480568814E-2</v>
       </c>
       <c r="F35" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C35/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C35*C35/(2*$B$8*$B$8))*C35*EXP(-0.5-0.5*ERF(C35/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.9061544175555438E-2</v>
       </c>
       <c r="G35" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C35/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C35*C35/(2*$B$10*$B$10))*C35*EXP(-0.5-0.5*ERF(C35/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.0964669425051353E-2</v>
       </c>
       <c r="H35" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C35/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7617102119683016E-2</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.270939456369127E-3</v>
       </c>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C36">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-120</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C36/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C36*C36/(2*$B$6*$B$6))*C36*EXP(-0.5-0.5*ERF(C36/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.821273147979003E-2</v>
       </c>
       <c r="F36" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C36/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C36*C36/(2*$B$8*$B$8))*C36*EXP(-0.5-0.5*ERF(C36/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.9665534642517655E-2</v>
       </c>
       <c r="G36" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C36/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C36*C36/(2*$B$10*$B$10))*C36*EXP(-0.5-0.5*ERF(C36/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.1655001816941764E-2</v>
       </c>
       <c r="H36" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C36/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7607677562879738E-2</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.8570827133531773E-3</v>
       </c>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-112</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C37/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C37*C37/(2*$B$6*$B$6))*C37*EXP(-0.5-0.5*ERF(C37/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.8583958288642461E-2</v>
       </c>
       <c r="F37" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C37/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C37*C37/(2*$B$8*$B$8))*C37*EXP(-0.5-0.5*ERF(C37/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.0430452159939639E-2</v>
       </c>
       <c r="G37" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C37/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C37*C37/(2*$B$10*$B$10))*C37*EXP(-0.5-0.5*ERF(C37/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.2373955451155454E-2</v>
       </c>
       <c r="H37" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C37/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7593527806695007E-2</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0739843177206757E-2</v>
       </c>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C38">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-104</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C38/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C38*C38/(2*$B$6*$B$6))*C38*EXP(-0.5-0.5*ERF(C38/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.9123433243861155E-2</v>
       </c>
       <c r="F38" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C38/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C38*C38/(2*$B$8*$B$8))*C38*EXP(-0.5-0.5*ERF(C38/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.1352928015736634E-2</v>
       </c>
       <c r="G38" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C38/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C38*C38/(2*$B$10*$B$10))*C38*EXP(-0.5-0.5*ERF(C38/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.3083208201598613E-2</v>
       </c>
       <c r="H38" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C38/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7572853108383669E-2</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.6413078825746566E-2</v>
       </c>
     </row>
     <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-96</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C39/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C39*C39/(2*$B$6*$B$6))*C39*EXP(-0.5-0.5*ERF(C39/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.9861745180690067E-2</v>
       </c>
       <c r="F39" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C39/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C39*C39/(2*$B$8*$B$8))*C39*EXP(-0.5-0.5*ERF(C39/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.2404838218535082E-2</v>
       </c>
       <c r="G39" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C39/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C39*C39/(2*$B$10*$B$10))*C39*EXP(-0.5-0.5*ERF(C39/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.3734855054596722E-2</v>
       </c>
       <c r="H39" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C39/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7543454843159882E-2</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.4480102767825446E-2</v>
       </c>
     </row>
     <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C40">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-88</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C40/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C40*C40/(2*$B$6*$B$6))*C40*EXP(-0.5-0.5*ERF(C40/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.0806739405344936E-2</v>
       </c>
       <c r="F40" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C40/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C40*C40/(2*$B$8*$B$8))*C40*EXP(-0.5-0.5*ERF(C40/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.3526665893041733E-2</v>
       </c>
       <c r="G40" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C40/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C40*C40/(2*$B$10*$B$10))*C40*EXP(-0.5-0.5*ERF(C40/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.427436864245764E-2</v>
       </c>
       <c r="H40" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C40/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7502774490012286E-2</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.5642985350037952E-2</v>
       </c>
     </row>
     <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C41">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-80</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C41/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C41*C41/(2*$B$6*$B$6))*C41*EXP(-0.5-0.5*ERF(C41/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.192583721314608E-2</v>
       </c>
       <c r="F41" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C41/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C41*C41/(2*$B$8*$B$8))*C41*EXP(-0.5-0.5*ERF(C41/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.4625002182099419E-2</v>
       </c>
       <c r="G41" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C41/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C41*C41/(2*$B$10*$B$10))*C41*EXP(-0.5-0.5*ERF(C41/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.4645347090924231E-2</v>
       </c>
       <c r="H41" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C41/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.744799539755739E-2</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.0674629122046455E-2</v>
       </c>
     </row>
     <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C42">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-72</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C42/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C42*C42/(2*$B$6*$B$6))*C42*EXP(-0.5-0.5*ERF(C42/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.3130209481131113E-2</v>
       </c>
       <c r="F42" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C42/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C42*C42/(2*$B$8*$B$8))*C42*EXP(-0.5-0.5*ERF(C42/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.557699825781206E-2</v>
       </c>
       <c r="G42" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C42/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C42*C42/(2*$B$10*$B$10))*C42*EXP(-0.5-0.5*ERF(C42/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.4795685693501733E-2</v>
       </c>
       <c r="H42" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C42/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7376216336650367E-2</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.0371145173897351E-2</v>
       </c>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C43">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-64</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C43/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C43*C43/(2*$B$6*$B$6))*C43*EXP(-0.5-0.5*ERF(C43/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.4268699145699478E-2</v>
       </c>
       <c r="F43" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C43/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C43*C43/(2*$B$8*$B$8))*C43*EXP(-0.5-0.5*ERF(C43/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.6243634129424355E-2</v>
       </c>
       <c r="G43" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C43/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C43*C43/(2*$B$10*$B$10))*C43*EXP(-0.5-0.5*ERF(C43/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.4684385083196571E-2</v>
       </c>
       <c r="H43" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C43/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7284695632787887E-2</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9.5484862042372595E-2</v>
       </c>
     </row>
     <row r="44" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C44">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-56</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C44/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C44*C44/(2*$B$6*$B$6))*C44*EXP(-0.5-0.5*ERF(C44/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.5140198234993673E-2</v>
       </c>
       <c r="F44" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C44/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C44*C44/(2*$B$8*$B$8))*C44*EXP(-0.5-0.5*ERF(C44/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.6491407030977E-2</v>
       </c>
       <c r="G44" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C44/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C44*C44/(2*$B$10*$B$10))*C44*EXP(-0.5-0.5*ERF(C44/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.4287869468931723E-2</v>
       </c>
       <c r="H44" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C44/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7171150944062664E-2</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.12664206521302501</v>
       </c>
     </row>
     <row r="45" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C45">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-48</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C45/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C45*C45/(2*$B$6*$B$6))*C45*EXP(-0.5-0.5*ERF(C45/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.5529349452470352E-2</v>
       </c>
       <c r="F45" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C45/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C45*C45/(2*$B$8*$B$8))*C45*EXP(-0.5-0.5*ERF(C45/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.6218841461215662E-2</v>
       </c>
       <c r="G45" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C45/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C45*C45/(2*$B$10*$B$10))*C45*EXP(-0.5-0.5*ERF(C45/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.3604568863417781E-2</v>
       </c>
       <c r="H45" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C45/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.7034084730990349E-2</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.16425368665012158</v>
       </c>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C46">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-40</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C46/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C46*C46/(2*$B$6*$B$6))*C46*EXP(-0.5-0.5*ERF(C46/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.5261037795145734E-2</v>
       </c>
       <c r="F46" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C46/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C46*C46/(2*$B$8*$B$8))*C46*EXP(-0.5-0.5*ERF(C46/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.53812526297102E-2</v>
       </c>
       <c r="G46" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C46/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C46*C46/(2*$B$10*$B$10))*C46*EXP(-0.5-0.5*ERF(C46/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.2656712712585076E-2</v>
       </c>
       <c r="H46" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C46/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.6873092509220873E-2</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.20843071878506494</v>
       </c>
     </row>
     <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C47">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-32</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C47/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C47*C47/(2*$B$6*$B$6))*C47*EXP(-0.5-0.5*ERF(C47/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.4257259631976092E-2</v>
       </c>
       <c r="F47" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C47/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C47*C47/(2*$B$8*$B$8))*C47*EXP(-0.5-0.5*ERF(C47/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.400607613235383E-2</v>
       </c>
       <c r="G47" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C47/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C47*C47/(2*$B$10*$B$10))*C47*EXP(-0.5-0.5*ERF(C47/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.1488788345148273E-2</v>
       </c>
       <c r="H47" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C47/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.6689103882209614E-2</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.25891807400387168</v>
       </c>
     </row>
     <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C48">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-24</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C48/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C48*C48/(2*$B$6*$B$6))*C48*EXP(-0.5-0.5*ERF(C48/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.2572937123125254E-2</v>
       </c>
       <c r="F48" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C48/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C48*C48/(2*$B$8*$B$8))*C48*EXP(-0.5-0.5*ERF(C48/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.2192982240408575E-2</v>
       </c>
       <c r="G48" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C48/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C48*C48/(2*$B$10*$B$10))*C48*EXP(-0.5-0.5*ERF(C48/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>9.01628192700685E-2</v>
       </c>
       <c r="H48" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C48/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.6484508277654665E-2</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.31506008197015856</v>
       </c>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C49">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-16</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C49/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C49*C49/(2*$B$6*$B$6))*C49*EXP(-0.5-0.5*ERF(C49/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>9.0392233573551098E-2</v>
       </c>
       <c r="F49" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C49/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C49*C49/(2*$B$8*$B$8))*C49*EXP(-0.5-0.5*ERF(C49/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>9.0097671093509427E-2</v>
       </c>
       <c r="G49" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C49/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C49*C49/(2*$B$10*$B$10))*C49*EXP(-0.5-0.5*ERF(C49/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.8751312192319867E-2</v>
       </c>
       <c r="H49" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C49/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.6263129622500226E-2</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.37580743892478141</v>
       </c>
     </row>
     <row r="50" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C50">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C50/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C50*C50/(2*$B$6*$B$6))*C50*EXP(-0.5-0.5*ERF(C50/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.7983911641532353E-2</v>
       </c>
       <c r="F50" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C50/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C50*C50/(2*$B$8*$B$8))*C50*EXP(-0.5-0.5*ERF(C50/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.7903787764509439E-2</v>
       </c>
       <c r="G50" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C50/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C50*C50/(2*$B$10*$B$10))*C50*EXP(-0.5-0.5*ERF(C50/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.7329193803156416E-2</v>
       </c>
       <c r="H50" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C50/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.6030035655776063E-2</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.4397695331505479</v>
       </c>
     </row>
     <row r="51" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C51">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C51/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C51*C51/(2*$B$6*$B$6))*C51*EXP(-0.5-0.5*ERF(C51/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.5633627583837094E-2</v>
       </c>
       <c r="F51" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C51/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C51*C51/(2*$B$8*$B$8))*C51*EXP(-0.5-0.5*ERF(C51/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.579119432502065E-2</v>
       </c>
       <c r="G51" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C51/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C51*C51/(2*$B$10*$B$10))*C51*EXP(-0.5-0.5*ERF(C51/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.5966171796733784E-2</v>
       </c>
       <c r="H51" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C51/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.579119432502065E-2</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.50530873142959787</v>
       </c>
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C52">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C52/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C52*C52/(2*$B$6*$B$6))*C52*EXP(-0.5-0.5*ERF(C52/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.3580200048511258E-2</v>
       </c>
       <c r="F52" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C52/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C52*C52/(2*$B$8*$B$8))*C52*EXP(-0.5-0.5*ERF(C52/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.3909172904984286E-2</v>
       </c>
       <c r="G52" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C52/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C52*C52/(2*$B$10*$B$10))*C52*EXP(-0.5-0.5*ERF(C52/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.4720702590029354E-2</v>
       </c>
       <c r="H52" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C52/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.5553016078743133E-2</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.57066597617097881</v>
       </c>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C53">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C53/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C53*C53/(2*$B$6*$B$6))*C53*EXP(-0.5-0.5*ERF(C53/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.1976829058560408E-2</v>
       </c>
       <c r="F53" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C53/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C53*C53/(2*$B$8*$B$8))*C53*EXP(-0.5-0.5*ERF(C53/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.2360216607648459E-2</v>
       </c>
       <c r="G53" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C53/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C53*C53/(2*$B$10*$B$10))*C53*EXP(-0.5-0.5*ERF(C53/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.3636248103222899E-2</v>
       </c>
       <c r="H53" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C53/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.532184092928731E-2</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.6341015378028545</v>
       </c>
     </row>
     <row r="54" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C54">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C54/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C54*C54/(2*$B$6*$B$6))*C54*EXP(-0.5-0.5*ERF(C54/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.0883121693901369E-2</v>
       </c>
       <c r="F54" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C54/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C54*C54/(2*$B$8*$B$8))*C54*EXP(-0.5-0.5*ERF(C54/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.1195712766921016E-2</v>
       </c>
       <c r="G54" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C54/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C54*C54/(2*$B$10*$B$10))*C54*EXP(-0.5-0.5*ERF(C54/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.2739936928896446E-2</v>
       </c>
       <c r="H54" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C54/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.5103438411005233E-2</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.69403222863036096</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C55">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C55/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C55*C55/(2*$B$6*$B$6))*C55*EXP(-0.5-0.5*ERF(C55/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.0280372010513371E-2</v>
       </c>
       <c r="F55" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C55/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C55*C55/(2*$B$8*$B$8))*C55*EXP(-0.5-0.5*ERF(C55/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.0421165801319319E-2</v>
       </c>
       <c r="G55" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C55/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C55*C55/(2*$B$10*$B$10))*C55*EXP(-0.5-0.5*ERF(C55/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.2043278890490942E-2</v>
       </c>
       <c r="H55" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C55/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4902585147427101E-2</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.74914732041538346</v>
       </c>
     </row>
     <row r="56" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C56/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C56*C56/(2*$B$6*$B$6))*C56*EXP(-0.5-0.5*ERF(C56/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.0097319035184536E-2</v>
       </c>
       <c r="F56" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C56/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C56*C56/(2*$B$8*$B$8))*C56*EXP(-0.5-0.5*ERF(C56/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.0006875589581042E-2</v>
       </c>
       <c r="G56" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C56/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C56*C56/(2*$B$10*$B$10))*C56*EXP(-0.5-0.5*ERF(C56/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.154431379647531E-2</v>
       </c>
       <c r="H56" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C56/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4722769860325148E-2</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.79848949129387214</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C57">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C57/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C57*C57/(2*$B$6*$B$6))*C57*EXP(-0.5-0.5*ERF(C57/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.0235862156457019E-2</v>
       </c>
       <c r="F57" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C57/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C57*C57/(2*$B$8*$B$8))*C57*EXP(-0.5-0.5*ERF(C57/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>7.9900162868210181E-2</v>
       </c>
       <c r="G57" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C57/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C57*C57/(2*$B$10*$B$10))*C57*EXP(-0.5-0.5*ERF(C57/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1230517148238937E-2</v>
       </c>
       <c r="H57" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C57/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4566053017763557E-2</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.84149333901915957</v>
       </c>
     </row>
     <row r="58" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C58">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C58/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C58*C58/(2*$B$6*$B$6))*C58*EXP(-0.5-0.5*ERF(C58/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.059142996672046E-2</v>
       </c>
       <c r="F58" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C58/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C58*C58/(2*$B$8*$B$8))*C58*EXP(-0.5-0.5*ERF(C58/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.003650150284107E-2</v>
       </c>
       <c r="G58" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C58/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C58*C58/(2*$B$10*$B$10))*C58*EXP(-0.5-0.5*ERF(C58/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.108188548125625E-2</v>
       </c>
       <c r="H58" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C58/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4433083009726656E-2</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.87798094229257162</v>
       </c>
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C59">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C59/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C59*C59/(2*$B$6*$B$6))*C59*EXP(-0.5-0.5*ERF(C59/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.1066988251031383E-2</v>
       </c>
       <c r="F59" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C59/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C59*C59/(2*$B$8*$B$8))*C59*EXP(-0.5-0.5*ERF(C59/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.0348360680600625E-2</v>
       </c>
       <c r="G59" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C59/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C59*C59/(2*$B$10*$B$10))*C59*EXP(-0.5-0.5*ERF(C59/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1073803126686772E-2</v>
       </c>
       <c r="H59" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C59/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4323247854102307E-2</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.90812023191931646</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C60">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C60/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C60*C60/(2*$B$6*$B$6))*C60*EXP(-0.5-0.5*ERF(C60/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.1581652672389066E-2</v>
       </c>
       <c r="F60" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C60/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C60*C60/(2*$B$8*$B$8))*C60*EXP(-0.5-0.5*ERF(C60/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.0771602693064187E-2</v>
       </c>
       <c r="G60" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C60/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C60*C60/(2*$B$10*$B$10))*C60*EXP(-0.5-0.5*ERF(C60/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1179478616998993E-2</v>
       </c>
       <c r="H60" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C60/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4234924929179097E-2</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.93235646302228126</v>
       </c>
     </row>
     <row r="61" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C61">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C61/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C61*C61/(2*$B$6*$B$6))*C61*EXP(-0.5-0.5*ERF(C61/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.2075091737709244E-2</v>
       </c>
       <c r="F61" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C61/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C61*C61/(2*$B$8*$B$8))*C61*EXP(-0.5-0.5*ERF(C61/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.1249774537052705E-2</v>
       </c>
       <c r="G61" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C61/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C61*C61/(2*$B$10*$B$10))*C61*EXP(-0.5-0.5*ERF(C61/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1371886363456533E-2</v>
       </c>
       <c r="H61" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C61/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4165783220675625E-2</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.95132927701820524</v>
       </c>
     </row>
     <row r="62" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C62">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C62/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C62*C62/(2*$B$6*$B$6))*C62*EXP(-0.5-0.5*ERF(C62/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.2508511989766359E-2</v>
       </c>
       <c r="F62" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C62/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C62*C62/(2*$B$8*$B$8))*C62*EXP(-0.5-0.5*ERF(C62/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.1736708756543236E-2</v>
       </c>
       <c r="G62" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C62/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C62*C62/(2*$B$10*$B$10))*C62*EXP(-0.5-0.5*ERF(C62/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1625239911042619E-2</v>
       </c>
       <c r="H62" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C62/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4113093174589038E-2</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.96578767652083342</v>
       </c>
     </row>
     <row r="63" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C63">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C63/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C63*C63/(2*$B$6*$B$6))*C63*EXP(-0.5-0.5*ERF(C63/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.2862810328006534E-2</v>
       </c>
       <c r="F63" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C63/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C63*C63/(2*$B$8*$B$8))*C63*EXP(-0.5-0.5*ERF(C63/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.2197739886360671E-2</v>
       </c>
       <c r="G63" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C63/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C63*C63/(2*$B$10*$B$10))*C63*EXP(-0.5-0.5*ERF(C63/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.1916061328025327E-2</v>
       </c>
       <c r="H63" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C63/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4074006867785073E-2</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.97651314519712429</v>
       </c>
     </row>
     <row r="64" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C64">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C64/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C64*C64/(2*$B$6*$B$6))*C64*EXP(-0.5-0.5*ERF(C64/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.3134635278935179E-2</v>
       </c>
       <c r="F64" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C64/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C64*C64/(2*$B$8*$B$8))*C64*EXP(-0.5-0.5*ERF(C64/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.2609734576551852E-2</v>
       </c>
       <c r="G64" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C64/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C64*C64/(2*$B$10*$B$10))*C64*EXP(-0.5-0.5*ERF(C64/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.222391331822422E-2</v>
       </c>
       <c r="H64" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C64/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.404578316757895E-2</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.98425786290627082</v>
       </c>
     </row>
     <row r="65" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C65">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C65/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C65*C65/(2*$B$6*$B$6))*C65*EXP(-0.5-0.5*ERF(C65/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="7"/>
         <v>8.3331373426654129E-2</v>
       </c>
       <c r="F65" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C65/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C65*C65/(2*$B$8*$B$8))*C65*EXP(-0.5-0.5*ERF(C65/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="8"/>
         <v>8.2960112654357127E-2</v>
       </c>
       <c r="G65" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C65/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C65*C65/(2*$B$10*$B$10))*C65*EXP(-0.5-0.5*ERF(C65/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="9"/>
         <v>8.2531845462327058E-2</v>
       </c>
       <c r="H65" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C65/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="10"/>
         <v>8.4025945843351463E-2</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.98970131911947734</v>
       </c>
     </row>
     <row r="66" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C66">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" ref="C66:C102" si="11">$B$2*(ROW()-51)</f>
         <v>120</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C66*C66/(2*$B$6*$B$6))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$6))))</f>
+        <f t="shared" ref="E66:E102" si="12">-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C66*C66/(2*$B$6*$B$6))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$6))))</f>
         <v>8.3466160228995681E-2</v>
       </c>
       <c r="F66" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C66*C66/(2*$B$8*$B$8))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="F66:F102" si="13">1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C66*C66/(2*$B$8*$B$8))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))</f>
         <v>8.3245095099485314E-2</v>
       </c>
       <c r="G66" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C66*C66/(2*$B$10*$B$10))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$10))))</f>
+        <f t="shared" ref="G66:G102" si="14">0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C66*C66/(2*$B$10*$B$10))*C66*EXP(-0.5-0.5*ERF(C66/(SQRT(2)*$B$10))))</f>
         <v>8.2826589230703601E-2</v>
       </c>
       <c r="H66" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))</f>
+        <f t="shared" ref="H66:H102" si="15">1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C66/(SQRT(2)*$B$8))))</f>
         <v>8.401237458247629E-2</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.99342533771618124</v>
       </c>
     </row>
     <row r="67" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C67">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C67/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C67*C67/(2*$B$6*$B$6))*C67*EXP(-0.5-0.5*ERF(C67/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3553787984262662E-2</v>
       </c>
       <c r="F67" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C67/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C67*C67/(2*$B$8*$B$8))*C67*EXP(-0.5-0.5*ERF(C67/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3467493320739175E-2</v>
       </c>
       <c r="G67" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C67/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C67*C67/(2*$B$10*$B$10))*C67*EXP(-0.5-0.5*ERF(C67/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3098527317237533E-2</v>
       </c>
       <c r="H67" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C67/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.4003337769145606E-2</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" ref="X67:X102" si="1">(0.0876326664977975-H67)/0.00364425163912571</f>
+        <f t="shared" ref="X67:X102" si="16">(0.0876326664977975-H67)/0.00364425163912571</f>
         <v>0.99590508231824515</v>
       </c>
     </row>
     <row r="68" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C68">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C68/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C68*C68/(2*$B$6*$B$6))*C68*EXP(-0.5-0.5*ERF(C68/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3607951313572335E-2</v>
       </c>
       <c r="F68" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C68/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C68*C68/(2*$B$8*$B$8))*C68*EXP(-0.5-0.5*ERF(C68/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3634390612289305E-2</v>
       </c>
       <c r="G68" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C68/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C68*C68/(2*$B$10*$B$10))*C68*EXP(-0.5-0.5*ERF(C68/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3341463962649298E-2</v>
       </c>
       <c r="H68" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C68/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3997480968604515E-2</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99751221627085418</v>
       </c>
     </row>
     <row r="69" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C69">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C69/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C69*C69/(2*$B$6*$B$6))*C69*EXP(-0.5-0.5*ERF(C69/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3639830840758919E-2</v>
       </c>
       <c r="F69" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C69/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C69*C69/(2*$B$8*$B$8))*C69*EXP(-0.5-0.5*ERF(C69/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3755031699956545E-2</v>
       </c>
       <c r="G69" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C69/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C69*C69/(2*$B$10*$B$10))*C69*EXP(-0.5-0.5*ERF(C69/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3552231632094104E-2</v>
       </c>
       <c r="H69" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C69/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3993786521874794E-2</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.9985259900426916</v>
       </c>
     </row>
     <row r="70" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C70">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C70/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C70*C70/(2*$B$6*$B$6))*C70*EXP(-0.5-0.5*ERF(C70/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.365772115779653E-2</v>
       </c>
       <c r="F70" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C70/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C70*C70/(2*$B$8*$B$8))*C70*EXP(-0.5-0.5*ERF(C70/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3839139613821168E-2</v>
       </c>
       <c r="G70" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C70/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C70*C70/(2*$B$10*$B$10))*C70*EXP(-0.5-0.5*ERF(C70/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3730180388201056E-2</v>
       </c>
       <c r="H70" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C70/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3991518341065677E-2</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99914838965548602</v>
       </c>
     </row>
     <row r="71" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C71">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C71/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C71*C71/(2*$B$6*$B$6))*C71*EXP(-0.5-0.5*ERF(C71/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3667303892964923E-2</v>
       </c>
       <c r="F71" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C71/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C71*C71/(2*$B$8*$B$8))*C71*EXP(-0.5-0.5*ERF(C71/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3895755501454825E-2</v>
       </c>
       <c r="G71" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C71/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C71*C71/(2*$B$10*$B$10))*C71*EXP(-0.5-0.5*ERF(C71/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3876604181595094E-2</v>
       </c>
       <c r="H71" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C71/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3990163020719114E-2</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99952029601124159</v>
       </c>
     </row>
     <row r="72" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C72">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C72/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C72*C72/(2*$B$6*$B$6))*C72*EXP(-0.5-0.5*ERF(C72/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3672207523919614E-2</v>
       </c>
       <c r="F72" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C72/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C72*C72/(2*$B$8*$B$8))*C72*EXP(-0.5-0.5*ERF(C72/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3932584482674544E-2</v>
       </c>
       <c r="G72" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C72/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C72*C72/(2*$B$10*$B$10))*C72*EXP(-0.5-0.5*ERF(C72/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.3994159518655756E-2</v>
       </c>
       <c r="H72" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C72/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3989374814220627E-2</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99973658362706486</v>
       </c>
     </row>
     <row r="73" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C73">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>176</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C73/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C73*C73/(2*$B$6*$B$6))*C73*EXP(-0.5-0.5*ERF(C73/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3674606540576305E-2</v>
       </c>
       <c r="F73" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C73/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C73*C73/(2*$B$8*$B$8))*C73*EXP(-0.5-0.5*ERF(C73/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3955754389101037E-2</v>
       </c>
       <c r="G73" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C73/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C73*C73/(2*$B$10*$B$10))*C73*EXP(-0.5-0.5*ERF(C73/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4086325659266742E-2</v>
       </c>
       <c r="H73" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C73/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988928675090085E-2</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99985900632854674</v>
       </c>
     </row>
     <row r="74" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C74">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C74/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C74*C74/(2*$B$6*$B$6))*C74*EXP(-0.5-0.5*ERF(C74/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3675729374558652E-2</v>
       </c>
       <c r="F74" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C74/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C74*C74/(2*$B$8*$B$8))*C74*EXP(-0.5-0.5*ERF(C74/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3969861215871425E-2</v>
       </c>
       <c r="G74" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C74/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C74*C74/(2*$B$10*$B$10))*C74*EXP(-0.5-0.5*ERF(C74/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4156943138443671E-2</v>
       </c>
       <c r="H74" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C74/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988682903382947E-2</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99992644725510071</v>
       </c>
     </row>
     <row r="75" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C75">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>192</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C75/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C75*C75/(2*$B$6*$B$6))*C75*EXP(-0.5-0.5*ERF(C75/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676232414237495E-2</v>
       </c>
       <c r="F75" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C75/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C75*C75/(2*$B$8*$B$8))*C75*EXP(-0.5-0.5*ERF(C75/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3978177965888592E-2</v>
       </c>
       <c r="G75" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C75/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C75*C75/(2*$B$10*$B$10))*C75*EXP(-0.5-0.5*ERF(C75/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4209851925499082E-2</v>
       </c>
       <c r="H75" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C75/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988551131094574E-2</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99996260619839594</v>
       </c>
     </row>
     <row r="76" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C76">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C76/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C76*C76/(2*$B$6*$B$6))*C76*EXP(-0.5-0.5*ERF(C76/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676448236522719E-2</v>
       </c>
       <c r="F76" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C76/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C76*C76/(2*$B$8*$B$8))*C76*EXP(-0.5-0.5*ERF(C76/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3982928179876348E-2</v>
       </c>
       <c r="G76" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C76/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C76*C76/(2*$B$10*$B$10))*C76*EXP(-0.5-0.5*ERF(C76/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4248635144521911E-2</v>
       </c>
       <c r="H76" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C76/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988482369407522E-2</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.9999814747326965</v>
       </c>
     </row>
     <row r="77" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C77">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C77/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C77*C77/(2*$B$6*$B$6))*C77*EXP(-0.5-0.5*ERF(C77/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.367653694640699E-2</v>
       </c>
       <c r="F77" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C77/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C77*C77/(2*$B$8*$B$8))*C77*EXP(-0.5-0.5*ERF(C77/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3985557816198458E-2</v>
       </c>
       <c r="G77" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C77/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C77*C77/(2*$B$10*$B$10))*C77*EXP(-0.5-0.5*ERF(C77/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4276461544713591E-2</v>
       </c>
       <c r="H77" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C77/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988447447421066E-2</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999105749204287</v>
       </c>
     </row>
     <row r="78" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C78">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C78/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C78*C78/(2*$B$6*$B$6))*C78*EXP(-0.5-0.5*ERF(C78/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676571891010187E-2</v>
       </c>
       <c r="F78" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C78/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C78*C78/(2*$B$8*$B$8))*C78*EXP(-0.5-0.5*ERF(C78/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3986969263891945E-2</v>
       </c>
       <c r="G78" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C78/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C78*C78/(2*$B$10*$B$10))*C78*EXP(-0.5-0.5*ERF(C78/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4296011264593337E-2</v>
       </c>
       <c r="H78" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C78/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988430185816185E-2</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999579415860462</v>
       </c>
     </row>
     <row r="79" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C79">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C79/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C79*C79/(2*$B$6*$B$6))*C79*EXP(-0.5-0.5*ERF(C79/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676585087294697E-2</v>
       </c>
       <c r="F79" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C79/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C79*C79/(2*$B$8*$B$8))*C79*EXP(-0.5-0.5*ERF(C79/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3987704054083262E-2</v>
       </c>
       <c r="G79" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C79/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C79*C79/(2*$B$10*$B$10))*C79*EXP(-0.5-0.5*ERF(C79/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4309465156897218E-2</v>
       </c>
       <c r="H79" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C79/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988421881705924E-2</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999807284599584</v>
       </c>
     </row>
     <row r="80" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C80">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>232</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C80/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C80*C80/(2*$B$6*$B$6))*C80*EXP(-0.5-0.5*ERF(C80/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676589865902748E-2</v>
       </c>
       <c r="F80" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C80/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C80*C80/(2*$B$8*$B$8))*C80*EXP(-0.5-0.5*ERF(C80/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988075175963003E-2</v>
       </c>
       <c r="G80" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C80/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C80*C80/(2*$B$10*$B$10))*C80*EXP(-0.5-0.5*ERF(C80/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4318537425956866E-2</v>
       </c>
       <c r="H80" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C80/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988417993630715E-2</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999913975234422</v>
       </c>
     </row>
     <row r="81" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C81">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C81/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C81*C81/(2*$B$6*$B$6))*C81*EXP(-0.5-0.5*ERF(C81/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676591525605568E-2</v>
       </c>
       <c r="F81" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C81/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C81*C81/(2*$B$8*$B$8))*C81*EXP(-0.5-0.5*ERF(C81/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988257076717782E-2</v>
       </c>
       <c r="G81" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C81/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C81*C81/(2*$B$10*$B$10))*C81*EXP(-0.5-0.5*ERF(C81/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4324533491738657E-2</v>
       </c>
       <c r="H81" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C81/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988416221867188E-2</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999962593269154</v>
       </c>
     </row>
     <row r="82" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C82">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>248</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C82/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C82*C82/(2*$B$6*$B$6))*C82*EXP(-0.5-0.5*ERF(C82/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592078609016E-2</v>
       </c>
       <c r="F82" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C82/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C82*C82/(2*$B$8*$B$8))*C82*EXP(-0.5-0.5*ERF(C82/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988343616217861E-2</v>
       </c>
       <c r="G82" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C82/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C82*C82/(2*$B$10*$B$10))*C82*EXP(-0.5-0.5*ERF(C82/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4328418646113859E-2</v>
       </c>
       <c r="H82" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C82/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988415436077463E-2</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999984155713317</v>
       </c>
     </row>
     <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C83">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C83/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C83*C83/(2*$B$6*$B$6))*C83*EXP(-0.5-0.5*ERF(C83/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592255405441E-2</v>
       </c>
       <c r="F83" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C83/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C83*C83/(2*$B$8*$B$8))*C83*EXP(-0.5-0.5*ERF(C83/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988383586977827E-2</v>
       </c>
       <c r="G83" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C83/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C83*C83/(2*$B$10*$B$10))*C83*EXP(-0.5-0.5*ERF(C83/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4330887179664624E-2</v>
       </c>
       <c r="H83" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C83/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988415096892685E-2</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999993463105097</v>
       </c>
     </row>
     <row r="84" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C84">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>264</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C84/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C84*C84/(2*$B$6*$B$6))*C84*EXP(-0.5-0.5*ERF(C84/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.367659230964776E-2</v>
       </c>
       <c r="F84" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C84/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C84*C84/(2*$B$8*$B$8))*C84*EXP(-0.5-0.5*ERF(C84/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988401513471381E-2</v>
       </c>
       <c r="G84" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C84/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C84*C84/(2*$B$10*$B$10))*C84*EXP(-0.5-0.5*ERF(C84/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4332425496935481E-2</v>
       </c>
       <c r="H84" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C84/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414954398974E-2</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999997373200378</v>
       </c>
     </row>
     <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C85">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>272</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C85/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C85*C85/(2*$B$6*$B$6))*C85*EXP(-0.5-0.5*ERF(C85/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592325620761E-2</v>
       </c>
       <c r="F85" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C85/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C85*C85/(2*$B$8*$B$8))*C85*EXP(-0.5-0.5*ERF(C85/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988409321508847E-2</v>
       </c>
       <c r="G85" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C85/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C85*C85/(2*$B$10*$B$10))*C85*EXP(-0.5-0.5*ERF(C85/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4333365885178438E-2</v>
       </c>
       <c r="H85" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C85/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414896137106E-2</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999998971933757</v>
       </c>
     </row>
     <row r="86" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C86">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>280</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C86/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C86*C86/(2*$B$6*$B$6))*C86*EXP(-0.5-0.5*ERF(C86/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592330135927E-2</v>
       </c>
       <c r="F86" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C86/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C86*C86/(2*$B$8*$B$8))*C86*EXP(-0.5-0.5*ERF(C86/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988412624776035E-2</v>
       </c>
       <c r="G86" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C86/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C86*C86/(2*$B$10*$B$10))*C86*EXP(-0.5-0.5*ERF(C86/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4333929903454646E-2</v>
       </c>
       <c r="H86" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C86/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414872952361E-2</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999608134227</v>
       </c>
     </row>
     <row r="87" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C87">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>288</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C87/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C87*C87/(2*$B$6*$B$6))*C87*EXP(-0.5-0.5*ERF(C87/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331361266E-2</v>
       </c>
       <c r="F87" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C87/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C87*C87/(2*$B$8*$B$8))*C87*EXP(-0.5-0.5*ERF(C87/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988413982327828E-2</v>
       </c>
       <c r="G87" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C87/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C87*C87/(2*$B$10*$B$10))*C87*EXP(-0.5-0.5*ERF(C87/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334261849258102E-2</v>
       </c>
       <c r="H87" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C87/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414863972918E-2</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999854534394</v>
       </c>
     </row>
     <row r="88" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C88">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>296</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C88/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C88*C88/(2*$B$6*$B$6))*C88*EXP(-0.5-0.5*ERF(C88/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331680538E-2</v>
       </c>
       <c r="F88" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C88/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C88*C88/(2*$B$8*$B$8))*C88*EXP(-0.5-0.5*ERF(C88/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414524366561E-2</v>
       </c>
       <c r="G88" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C88/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C88*C88/(2*$B$10*$B$10))*C88*EXP(-0.5-0.5*ERF(C88/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334453577609561E-2</v>
       </c>
       <c r="H88" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C88/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414860588168E-2</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999947413565</v>
       </c>
     </row>
     <row r="89" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C89">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>304</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C89/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C89*C89/(2*$B$6*$B$6))*C89*EXP(-0.5-0.5*ERF(C89/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331760433E-2</v>
       </c>
       <c r="F89" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C89/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C89*C89/(2*$B$8*$B$8))*C89*EXP(-0.5-0.5*ERF(C89/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414734652961E-2</v>
       </c>
       <c r="G89" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C89/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C89*C89/(2*$B$10*$B$10))*C89*EXP(-0.5-0.5*ERF(C89/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.433456227079833E-2</v>
       </c>
       <c r="H89" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C89/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414859346439E-2</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999981487198</v>
       </c>
     </row>
     <row r="90" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C90">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>312</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C90/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C90*C90/(2*$B$6*$B$6))*C90*EXP(-0.5-0.5*ERF(C90/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331779626E-2</v>
       </c>
       <c r="F90" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C90/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C90*C90/(2*$B$8*$B$8))*C90*EXP(-0.5-0.5*ERF(C90/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414813928755E-2</v>
       </c>
       <c r="G90" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C90/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C90*C90/(2*$B$10*$B$10))*C90*EXP(-0.5-0.5*ERF(C90/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334622757798294E-2</v>
       </c>
       <c r="H90" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C90/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858903071E-2</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999993653421</v>
       </c>
     </row>
     <row r="91" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C91">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C91/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C91*C91/(2*$B$6*$B$6))*C91*EXP(-0.5-0.5*ERF(C91/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331784067E-2</v>
       </c>
       <c r="F91" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C91/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C91*C91/(2*$B$8*$B$8))*C91*EXP(-0.5-0.5*ERF(C91/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414842972758E-2</v>
       </c>
       <c r="G91" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C91/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C91*C91/(2*$B$10*$B$10))*C91*EXP(-0.5-0.5*ERF(C91/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334655802979067E-2</v>
       </c>
       <c r="H91" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C91/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858749E-2</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999997881206</v>
       </c>
     </row>
     <row r="92" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C92">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>328</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C92/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C92*C92/(2*$B$6*$B$6))*C92*EXP(-0.5-0.5*ERF(C92/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785038E-2</v>
       </c>
       <c r="F92" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C92/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C92*C92/(2*$B$8*$B$8))*C92*EXP(-0.5-0.5*ERF(C92/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414853314514E-2</v>
       </c>
       <c r="G92" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C92/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C92*C92/(2*$B$10*$B$10))*C92*EXP(-0.5-0.5*ERF(C92/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334673527703519E-2</v>
       </c>
       <c r="H92" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C92/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858696889E-2</v>
       </c>
       <c r="X92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999311162</v>
       </c>
     </row>
     <row r="93" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C93">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C93/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C93*C93/(2*$B$6*$B$6))*C93*EXP(-0.5-0.5*ERF(C93/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785246E-2</v>
       </c>
       <c r="F93" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C93/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C93*C93/(2*$B$8*$B$8))*C93*EXP(-0.5-0.5*ERF(C93/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414856893692E-2</v>
       </c>
       <c r="G93" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C93/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C93*C93/(2*$B$10*$B$10))*C93*EXP(-0.5-0.5*ERF(C93/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334682862647239E-2</v>
       </c>
       <c r="H93" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C93/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858679736E-2</v>
       </c>
       <c r="X93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999781841</v>
       </c>
     </row>
     <row r="94" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C94">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>344</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C94/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C94*C94/(2*$B$6*$B$6))*C94*EXP(-0.5-0.5*ERF(C94/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785288E-2</v>
       </c>
       <c r="F94" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C94/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C94*C94/(2*$B$8*$B$8))*C94*EXP(-0.5-0.5*ERF(C94/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858097785E-2</v>
       </c>
       <c r="G94" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C94/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C94*C94/(2*$B$10*$B$10))*C94*EXP(-0.5-0.5*ERF(C94/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334687690315199E-2</v>
       </c>
       <c r="H94" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C94/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.398841485867424E-2</v>
       </c>
       <c r="X94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999932643</v>
       </c>
     </row>
     <row r="95" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C95">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C95/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C95*C95/(2*$B$6*$B$6))*C95*EXP(-0.5-0.5*ERF(C95/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F95" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C95/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C95*C95/(2*$B$8*$B$8))*C95*EXP(-0.5-0.5*ERF(C95/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858491553E-2</v>
       </c>
       <c r="G95" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C95/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C95*C95/(2*$B$10*$B$10))*C95*EXP(-0.5-0.5*ERF(C95/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334690142123719E-2</v>
       </c>
       <c r="H95" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C95/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858672519E-2</v>
       </c>
       <c r="X95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999979861</v>
       </c>
     </row>
     <row r="96" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C96">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>360</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C96/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C96*C96/(2*$B$6*$B$6))*C96*EXP(-0.5-0.5*ERF(C96/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F96" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C96/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C96*C96/(2*$B$8*$B$8))*C96*EXP(-0.5-0.5*ERF(C96/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858616731E-2</v>
       </c>
       <c r="G96" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C96/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C96*C96/(2*$B$10*$B$10))*C96*EXP(-0.5-0.5*ERF(C96/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334691365012107E-2</v>
       </c>
       <c r="H96" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C96/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671992E-2</v>
       </c>
       <c r="X96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999994338</v>
       </c>
     </row>
     <row r="97" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C97">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>368</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C97/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C97*C97/(2*$B$6*$B$6))*C97*EXP(-0.5-0.5*ERF(C97/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F97" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C97/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C97*C97/(2*$B$8*$B$8))*C97*EXP(-0.5-0.5*ERF(C97/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858655436E-2</v>
       </c>
       <c r="G97" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C97/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C97*C97/(2*$B$10*$B$10))*C97*EXP(-0.5-0.5*ERF(C97/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334691964062999E-2</v>
       </c>
       <c r="H97" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C97/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671839E-2</v>
       </c>
       <c r="X97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999998523</v>
       </c>
     </row>
     <row r="98" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C98">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>376</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C98/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C98*C98/(2*$B$6*$B$6))*C98*EXP(-0.5-0.5*ERF(C98/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F98" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C98/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C98*C98/(2*$B$8*$B$8))*C98*EXP(-0.5-0.5*ERF(C98/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858667065E-2</v>
       </c>
       <c r="G98" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C98/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C98*C98/(2*$B$10*$B$10))*C98*EXP(-0.5-0.5*ERF(C98/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334692252294147E-2</v>
       </c>
       <c r="H98" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C98/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671798E-2</v>
       </c>
       <c r="X98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999999667</v>
       </c>
     </row>
     <row r="99" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C99">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>384</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C99/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C99*C99/(2*$B$6*$B$6))*C99*EXP(-0.5-0.5*ERF(C99/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F99" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C99/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C99*C99/(2*$B$8*$B$8))*C99*EXP(-0.5-0.5*ERF(C99/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858670465E-2</v>
       </c>
       <c r="G99" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C99/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C99*C99/(2*$B$10*$B$10))*C99*EXP(-0.5-0.5*ERF(C99/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.433469238851396E-2</v>
       </c>
       <c r="H99" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C99/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671798E-2</v>
       </c>
       <c r="X99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999999667</v>
       </c>
     </row>
     <row r="100" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C100">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>392</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C100/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C100*C100/(2*$B$6*$B$6))*C100*EXP(-0.5-0.5*ERF(C100/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F100" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C100/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C100*C100/(2*$B$8*$B$8))*C100*EXP(-0.5-0.5*ERF(C100/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858671423E-2</v>
       </c>
       <c r="G100" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C100/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C100*C100/(2*$B$10*$B$10))*C100*EXP(-0.5-0.5*ERF(C100/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334692451752569E-2</v>
       </c>
       <c r="H100" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C100/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671784E-2</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="101" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C101">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C101/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C101*C101/(2*$B$6*$B$6))*C101*EXP(-0.5-0.5*ERF(C101/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F101" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C101/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C101*C101/(2*$B$8*$B$8))*C101*EXP(-0.5-0.5*ERF(C101/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858671687E-2</v>
       </c>
       <c r="G101" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C101/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C101*C101/(2*$B$10*$B$10))*C101*EXP(-0.5-0.5*ERF(C101/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.433469248059193E-2</v>
       </c>
       <c r="H101" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C101/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671784E-2</v>
       </c>
       <c r="X101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="102" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C102">
-        <f>$B$2*(ROW()-51)</f>
+        <f t="shared" si="11"/>
         <v>408</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
-        <f>-0.007498336+1/($B$5*$B$5)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C102/(SQRT(2)*$B$6))))-$B$12/$B$15*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$6)*EXP(-C102*C102/(2*$B$6*$B$6))*C102*EXP(-0.5-0.5*ERF(C102/(SQRT(2)*$B$6))))</f>
+        <f t="shared" si="12"/>
         <v>8.3676592331785302E-2</v>
       </c>
       <c r="F102" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C102/(SQRT(2)*$B$8))))-$B$12/$B$17*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$8)*EXP(-C102*C102/(2*$B$8*$B$8))*C102*EXP(-0.5-0.5*ERF(C102/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="13"/>
         <v>8.3988414858671756E-2</v>
       </c>
       <c r="G102" s="1">
-        <f>0.00832686+1/($B$9*$B$9)*$B$28*$B$28*(EXP($B$24*$B$21*(-0.5-0.5*ERF(C102/(SQRT(2)*$B$10))))-$B$12/$B$19*$B$25*$B$24*$B$21/(SQRT(2*PI())*$B$10)*EXP(-C102*C102/(2*$B$10*$B$10))*C102*EXP(-0.5-0.5*ERF(C102/(SQRT(2)*$B$10))))</f>
+        <f t="shared" si="14"/>
         <v>8.4334692493512123E-2</v>
       </c>
       <c r="H102" s="1">
-        <f>1/($B$7*$B$7)*$B$28*$B$28*EXP($B$24*$B$21*(-0.5-0.5*ERF(C102/(SQRT(2)*$B$8))))</f>
+        <f t="shared" si="15"/>
         <v>8.3988414858671784E-2</v>
       </c>
       <c r="X102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
